--- a/docss/trend/spain/E_nerve.xlsx
+++ b/docss/trend/spain/E_nerve.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap4_Nervioso_Comarcas" sheetId="2" r:id="rId1"/>
     <sheet name="Tasa_anual_cap4_Nervioso" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12807,15 +12807,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>313</v>
       </c>
@@ -12829,215 +12829,260 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="2">
-        <v>3.1090027036972248</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.7324547147488896</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.5634221482811177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3.109</v>
+      </c>
+      <c r="C2">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="D2">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="2">
-        <v>2.9512256617617143</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.6268537608439266</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.3463742619214085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2.9510000000000001</v>
+      </c>
+      <c r="C3">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="D3">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.9925156664558292</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.6453343869804251</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.4113731548791049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="C4">
+        <v>3.645</v>
+      </c>
+      <c r="D4">
+        <v>2.411</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="2">
-        <v>3.2909460239123356</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.9828821961736995</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.6494887347566789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="C5">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="D5">
+        <v>2.649</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="2">
-        <v>3.3396887691607033</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.6403490652758328</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.0758901758266961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3.34</v>
+      </c>
+      <c r="C6">
+        <v>3.64</v>
+      </c>
+      <c r="D6">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="2">
-        <v>3.2373720158921833</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.7704505364678549</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.772906171676341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3.2370000000000001</v>
+      </c>
+      <c r="C7">
+        <v>3.77</v>
+      </c>
+      <c r="D7">
+        <v>2.7730000000000001</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="2">
-        <v>3.3457982438874909</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.8897645333511552</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.8622486180939162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="C8">
+        <v>3.89</v>
+      </c>
+      <c r="D8">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="2">
-        <v>3.2543240193813259</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3.8757759889437815</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.7114879155283327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3.254</v>
+      </c>
+      <c r="C9">
+        <v>3.8759999999999999</v>
+      </c>
+      <c r="D9">
+        <v>2.7109999999999999</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="2">
-        <v>3.4068838617368371</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4.0195526652254552</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.8439635300323549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3.407</v>
+      </c>
+      <c r="C10">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D10">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="2">
-        <v>3.5240233832571093</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4.1016754417941836</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3.0362244208901492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3.524</v>
+      </c>
+      <c r="C11">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="D11">
+        <v>3.036</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="2">
-        <v>3.4392184473381509</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3.920147948145166</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.0373802785239223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3.4390000000000001</v>
+      </c>
+      <c r="C12">
+        <v>3.92</v>
+      </c>
+      <c r="D12">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="2">
-        <v>3.5261277603189405</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4.2445057296614044</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.8969254463656036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="C13">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="D13">
+        <v>2.8969999999999998</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="2">
-        <v>3.8178666415541409</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4.6311329661901395</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.1331507187798469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="C14">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="D14">
+        <v>3.133</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="2">
-        <v>3.9654520125071948</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4.7541811600702699</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.2552157466417899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="C15">
+        <v>4.7539999999999996</v>
+      </c>
+      <c r="D15">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="2">
-        <v>3.8774236057928437</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4.6987895081142907</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3.1520702644810665</v>
-      </c>
+      <c r="B16">
+        <v>3.8769999999999998</v>
+      </c>
+      <c r="C16">
+        <v>4.6989999999999998</v>
+      </c>
+      <c r="D16">
+        <v>3.1520000000000001</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
